--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 0 (30, 11, 3, 38, 29)/MDD 7 (35, 22, 50, 45, 28)/ANN_128nodes_Uniform0.05Virtual_Control(30, 11, 3, 38, 29)_MDD(35, 22, 50, 45, 28)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 0 (30, 11, 3, 38, 29)/MDD 7 (35, 22, 50, 45, 28)/ANN_128nodes_Uniform0.05Virtual_Control(30, 11, 3, 38, 29)_MDD(35, 22, 50, 45, 28)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.6565443755531185</v>
+        <v>0.7484373362386563</v>
       </c>
       <c r="E2">
-        <v>0.6565443755531185</v>
+        <v>0.7484373362386563</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.8956759873553818</v>
+        <v>0.8487155006798048</v>
       </c>
       <c r="E3">
-        <v>0.8956759873553818</v>
+        <v>0.8487155006798048</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>3.45899121596565E-27</v>
+        <v>9.565706026693842E-25</v>
       </c>
       <c r="E4">
-        <v>3.45899121596565E-27</v>
+        <v>9.565706026693842E-25</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9143281303669037</v>
+        <v>0.8292039860209397</v>
       </c>
       <c r="E5">
-        <v>0.9143281303669037</v>
+        <v>0.8292039860209397</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9838102495362059</v>
+        <v>0.9962798141428474</v>
       </c>
       <c r="E6">
-        <v>0.9838102495362059</v>
+        <v>0.9962798141428474</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.904879445734613E-16</v>
+        <v>1.011255406600327E-08</v>
       </c>
       <c r="E7">
-        <v>0.9999999999999997</v>
+        <v>0.999999989887446</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999173075382449</v>
+        <v>0.9998300371259385</v>
       </c>
       <c r="E8">
-        <v>8.269246175507394E-05</v>
+        <v>0.0001699628740614578</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.977648508664518</v>
+        <v>0.9607852157971946</v>
       </c>
       <c r="E9">
-        <v>0.02235149133548198</v>
+        <v>0.03921478420280544</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.999999710047487</v>
+        <v>0.9990757685891173</v>
       </c>
       <c r="E10">
-        <v>2.899525129995695E-07</v>
+        <v>0.0009242314108827143</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.216930258322717E-12</v>
+        <v>1.054564921471774E-07</v>
       </c>
       <c r="E11">
-        <v>0.9999999999977831</v>
+        <v>0.9999998945435079</v>
       </c>
       <c r="F11">
-        <v>7.25421142578125</v>
+        <v>4.514548301696777</v>
       </c>
       <c r="G11">
         <v>0.4</v>
